--- a/algorithms/k-means/k-means.xlsx
+++ b/algorithms/k-means/k-means.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\blackvatican\home\Dropbox\work\core\bets\machine_learning\techniques\k-means\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Dropbox\work\core\projects\ml_from_scratch\algorithms\k-means\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE7451-CA75-408C-9B72-0723C2389914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB471F-62CB-4FD6-AF75-245F493FE985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="k-means" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -329,50 +329,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,6 +364,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,7 +529,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$13</c:f>
+              <c:f>'k-means'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -562,7 +562,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$13</c:f>
+              <c:f>'k-means'!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -627,7 +627,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'k-means'!$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -639,7 +639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'k-means'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -661,7 +661,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$5</c:f>
+              <c:f>'k-means'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -694,7 +694,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'k-means'!$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -706,7 +706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>'k-means'!$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -728,7 +728,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$5</c:f>
+              <c:f>'k-means'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -761,7 +761,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>'k-means'!$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -773,7 +773,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>'k-means'!$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R28:R29"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,11 +2056,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -2073,9 +2073,9 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="13">
         <v>4.0999999999999996</v>
       </c>
@@ -2088,13 +2088,13 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
-      <c r="G4" s="36"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2116,19 +2116,19 @@
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2151,28 +2151,28 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="30">
         <v>5</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="26">
         <v>10</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="29">
         <f>ABS(B6-$D$1)+ABS(C6-$D$2)</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="30">
         <f>ABS(B6-$E$1)+ABS(C6-$E$2)</f>
         <v>5.6666666666666661</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="26">
         <f>ABS(B6-$F$1)+ABS(C6-$F$2)</f>
         <v>1.6666666666666661</v>
       </c>
-      <c r="G6" s="38" t="str">
+      <c r="G6" s="26" t="str">
         <f>IF(MIN(D6:F6)=D6,"1",IF(MIN(D6:F6)=E6,"2",IF(MIN(D6:F6)=F6,"3","-")))</f>
         <v>3</v>
       </c>
@@ -2202,28 +2202,28 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="30">
         <v>6</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="26">
         <v>8</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="29">
         <f t="shared" ref="D7:D13" si="1">ABS(B7-$D$1)+ABS(C7-$D$2)</f>
         <v>5.8000000000000007</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="30">
         <f t="shared" ref="E7:E13" si="2">ABS(B7-$E$1)+ABS(C7-$E$2)</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="26">
         <f t="shared" ref="F7:F13" si="3">ABS(B7-$F$1)+ABS(C7-$F$2)</f>
         <v>1.3333333333333339</v>
       </c>
-      <c r="G7" s="38" t="str">
+      <c r="G7" s="26" t="str">
         <f t="shared" ref="G7:G13" si="4">IF(MIN(D7:F7)=D7,"1",IF(MIN(D7:F7)=E7,"2",IF(MIN(D7:F7)=F7,"3","-")))</f>
         <v>3</v>
       </c>
@@ -2253,28 +2253,28 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="30">
         <v>4</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="30">
         <f t="shared" si="2"/>
         <v>11.666666666666666</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="26">
         <f t="shared" si="3"/>
         <v>6.3333333333333339</v>
       </c>
-      <c r="G8" s="38" t="str">
+      <c r="G8" s="26" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -2304,28 +2304,28 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="30">
         <v>7</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="26">
         <v>10</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="29">
         <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="30">
         <f t="shared" si="2"/>
         <v>3.6666666666666661</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="26">
         <f t="shared" si="3"/>
         <v>1.6666666666666661</v>
       </c>
-      <c r="G9" s="38" t="str">
+      <c r="G9" s="26" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -2355,28 +2355,28 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="30">
         <v>8</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="26">
         <v>12</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="29">
         <f t="shared" si="1"/>
         <v>11.8</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="30">
         <f t="shared" si="2"/>
         <v>3.3333333333333339</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="26">
         <f t="shared" si="3"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="G10" s="38" t="str">
+      <c r="G10" s="26" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -2406,28 +2406,28 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="30">
         <v>10</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="26">
         <v>9</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="29">
         <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="30">
         <f t="shared" si="2"/>
         <v>1.6666666666666661</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="26">
         <f t="shared" si="3"/>
         <v>4.3333333333333339</v>
       </c>
-      <c r="G11" s="38" t="str">
+      <c r="G11" s="26" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -2457,28 +2457,28 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="30">
         <v>12</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="26">
         <v>11</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="29">
         <f t="shared" si="1"/>
         <v>14.8</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="30">
         <f t="shared" si="2"/>
         <v>2.3333333333333339</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="26">
         <f t="shared" si="3"/>
         <v>7.6666666666666661</v>
       </c>
-      <c r="G12" s="38" t="str">
+      <c r="G12" s="26" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="B13" s="10">
         <v>4.2</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="27">
         <v>4.2</v>
       </c>
       <c r="D13" s="9">
@@ -2525,11 +2525,11 @@
         <f t="shared" si="2"/>
         <v>12.266666666666666</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="27">
         <f t="shared" si="3"/>
         <v>6.9333333333333336</v>
       </c>
-      <c r="G13" s="39" t="str">
+      <c r="G13" s="27" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -2586,81 +2586,81 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="19">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="15">
         <f>I14</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <f>K14</f>
         <v>10</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <f>M14</f>
         <v>6</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="21">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="17">
         <f>I14</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <f>L14</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="17">
         <f>N14</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="27">
-        <f>ABS(D16-D1)</f>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="19">
+        <f t="shared" ref="D19:F20" si="11">ABS(D16-D1)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="27">
-        <f>ABS(E16-E1)</f>
+      <c r="E19" s="19">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F19" s="27">
-        <f>ABS(F16-F1)</f>
+      <c r="F19" s="19">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="29">
-        <f>ABS(D17-D2)</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="21">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E20" s="29">
-        <f>ABS(E17-E2)</f>
+      <c r="E20" s="21">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F20" s="29">
-        <f>ABS(F17-F2)</f>
+      <c r="F20" s="21">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
